--- a/Mifos Automation Excels/Client/4657-DISB01JAN2015-REPAYMENTON-01FEB2015-RESCHDULEFROM01FEB2015-INSTRESCHDULETO15FEB2015.xlsx
+++ b/Mifos Automation Excels/Client/4657-DISB01JAN2015-REPAYMENTON-01FEB2015-RESCHDULEFROM01FEB2015-INSTRESCHDULETO15FEB2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17329"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -653,14 +653,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -688,14 +688,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -785,8 +785,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="78.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="78.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">

--- a/Mifos Automation Excels/Client/4657-DISB01JAN2015-REPAYMENTON-01FEB2015-RESCHDULEFROM01FEB2015-INSTRESCHDULETO15FEB2015.xlsx
+++ b/Mifos Automation Excels/Client/4657-DISB01JAN2015-REPAYMENTON-01FEB2015-RESCHDULEFROM01FEB2015-INSTRESCHDULETO15FEB2015.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="NewLoanInput" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Edit Repayment Schedule" sheetId="3" r:id="rId3"/>
     <sheet name="error" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -135,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -290,7 +290,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -342,7 +342,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -536,7 +536,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -688,7 +688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -779,8 +779,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
